--- a/Lab4/BurnUpChart.xlsx
+++ b/Lab4/BurnUpChart.xlsx
@@ -5,32 +5,56 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thehi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domel\Desktop\Ćwiczenia 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B7081-5045-4134-97DC-7A155FACAEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB8F9A5-2986-49EC-A55E-CF7564C219A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Target</t>
   </si>
   <si>
     <t>Burned</t>
+  </si>
+  <si>
+    <t>Średnia dotychczas:</t>
+  </si>
+  <si>
+    <t>Zostało</t>
+  </si>
+  <si>
+    <t>Pozostałych  dni</t>
+  </si>
+  <si>
+    <t>Zostało:</t>
+  </si>
+  <si>
+    <t>Czyli nie zdążymy</t>
   </si>
 </sst>
 </file>
@@ -79,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,166 +126,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,17 +145,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -369,7 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -641,7 +499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442418287"/>
@@ -700,7 +558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442417807"/>
@@ -752,7 +610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -789,7 +647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1660,140 +1518,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q24"/>
+  <dimension ref="B3:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="16" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="11">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>28</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>56</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="5">
         <v>84</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="5">
         <v>112</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>140</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="5">
         <v>168</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="5">
         <v>198</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="5">
         <v>230</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>260</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>285</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B14" s="8">
+    <row r="14" spans="2:4">
+      <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>313</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
     </row>
-    <row r="19" spans="6:17">
+    <row r="19" spans="5:17">
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1807,9 +1664,13 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="6:17">
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="5:17">
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>111</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1821,9 +1682,14 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="6:17">
+    <row r="21" spans="5:17">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1835,9 +1701,15 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="6:17">
+    <row r="22" spans="5:17">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="G22">
+        <f>202/8</f>
+        <v>25.25</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1849,7 +1721,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="6:17">
+    <row r="23" spans="5:17">
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1863,10 +1735,17 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="6:17">
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="5:17" ht="43.5">
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <f>G20-(G22*G21)</f>
+        <v>35.25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
